--- a/src/main/scala/sd_container/集合常见操作_help.xlsx
+++ b/src/main/scala/sd_container/集合常见操作_help.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanm\Music\GitHubProjects\JavaScalaStudy\src\main\scala\sd_container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE14C2CE-7990-45BC-BF44-AC6DFDDC7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494776-C070-432A-AAB1-55B070C4DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="36">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,24 +539,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:W14"/>
+  <dimension ref="A4:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6484375" customWidth="1"/>
-    <col min="4" max="4" width="20.6484375" customWidth="1"/>
-    <col min="5" max="5" width="17.94921875" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="9" max="9" width="12.046875" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" customWidth="1"/>
+    <col min="10" max="10" width="12.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:23" ht="19.2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -567,61 +572,64 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -638,11 +646,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,13 +660,13 @@
       <c r="J5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
         <v>2</v>
       </c>
@@ -668,13 +676,16 @@
       <c r="R5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,11 +702,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,10 +716,10 @@
       <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
         <v>2</v>
       </c>
@@ -736,10 +747,13 @@
       <c r="U6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="1"/>
+      <c r="V6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -754,11 +768,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
@@ -768,13 +782,13 @@
       <c r="J7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
         <v>2</v>
       </c>
@@ -784,13 +798,16 @@
       <c r="R7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,11 +822,11 @@
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H8" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,13 +836,13 @@
       <c r="J8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
         <v>2</v>
       </c>
@@ -835,13 +852,16 @@
       <c r="R8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -856,11 +876,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H9" s="4" t="s">
         <v>2</v>
       </c>
@@ -870,13 +890,13 @@
       <c r="J9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
         <v>2</v>
       </c>
@@ -886,17 +906,20 @@
       <c r="R9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -913,11 +936,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H10" s="4" t="s">
         <v>2</v>
       </c>
@@ -927,10 +950,10 @@
       <c r="J10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>2</v>
       </c>
@@ -958,10 +981,13 @@
       <c r="U10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="1"/>
+      <c r="V10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -973,12 +999,10 @@
       <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -994,25 +1018,28 @@
       <c r="L11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1024,12 +1051,10 @@
       <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1051,11 +1076,11 @@
       <c r="N12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1068,10 +1093,13 @@
       <c r="U12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="1"/>
+      <c r="V12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1083,12 +1111,10 @@
       <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1104,25 +1130,28 @@
       <c r="L13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="1"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1134,12 +1163,10 @@
       <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1161,11 +1188,11 @@
       <c r="N14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1178,8 +1205,11 @@
       <c r="U14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="1"/>
+      <c r="V14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/scala/sd_container/集合常见操作_help.xlsx
+++ b/src/main/scala/sd_container/集合常见操作_help.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanm\Music\GitHubProjects\JavaScalaStudy\src\main\scala\sd_container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494776-C070-432A-AAB1-55B070C4DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB30F4-3635-407E-A667-AD71CFAF53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,25 +539,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:X14"/>
+  <dimension ref="A4:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:X14"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.265625" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" customWidth="1"/>
-    <col min="7" max="7" width="16.46484375" customWidth="1"/>
-    <col min="10" max="10" width="12.06640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44921875" customWidth="1"/>
+    <col min="3" max="3" width="16.6484375" customWidth="1"/>
+    <col min="4" max="4" width="20.6484375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16.44921875" customWidth="1"/>
+    <col min="10" max="10" width="12.046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:24" ht="19.2" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="19.899999999999999" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1210,6 +1210,660 @@
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="19.2" x14ac:dyDescent="0.75">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="4"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/scala/sd_container/集合常见操作_help.xlsx
+++ b/src/main/scala/sd_container/集合常见操作_help.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanm\Music\GitHubProjects\JavaScalaStudy\src\main\scala\sd_container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB30F4-3635-407E-A667-AD71CFAF53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A361C-6ABF-49A5-9B7E-DAD88843F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="46">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,46 @@
   </si>
   <si>
     <t>indices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatten</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +252,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +262,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,12 +317,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,97 +607,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:X33"/>
+  <dimension ref="A4:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.44921875" customWidth="1"/>
-    <col min="3" max="3" width="16.6484375" customWidth="1"/>
-    <col min="4" max="4" width="20.6484375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="16.44921875" customWidth="1"/>
-    <col min="10" max="10" width="12.046875" customWidth="1"/>
+    <col min="2" max="2" width="12.84765625" customWidth="1"/>
+    <col min="3" max="3" width="18.546875" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="11.94921875" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" customWidth="1"/>
+    <col min="9" max="9" width="9.1484375" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" customWidth="1"/>
+    <col min="12" max="24" width="6.546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:24" ht="19.2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:34" ht="19.2" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="Y4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -684,8 +786,38 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="1"/>
+      <c r="Y5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -752,8 +884,38 @@
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="1"/>
+      <c r="Y6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -806,8 +968,34 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="1"/>
+      <c r="Y7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +1048,36 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="1"/>
+      <c r="Y8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="4"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -918,8 +1134,38 @@
       <c r="X9" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="Y9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1232,38 @@
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="1"/>
+      <c r="Y10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1314,38 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="1"/>
+      <c r="Y11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1098,8 +1404,38 @@
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="1"/>
+      <c r="Y12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1486,36 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="1"/>
+      <c r="Y13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1210,660 +1574,34 @@
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="23" spans="1:24" ht="19.2" x14ac:dyDescent="0.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W31" s="4"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" ht="19.5" x14ac:dyDescent="0.75">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W33" s="4"/>
-      <c r="X33" s="1"/>
+      <c r="Y14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/scala/sd_container/集合常见操作_help.xlsx
+++ b/src/main/scala/sd_container/集合常见操作_help.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanm\Music\GitHubProjects\JavaScalaStudy\src\main\scala\sd_container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A361C-6ABF-49A5-9B7E-DAD88843F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8504AA80-D4D5-4590-AE6E-510F209FD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="56">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +209,45 @@
   </si>
   <si>
     <t>flatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set/Map无序</t>
+  </si>
+  <si>
+    <t>Set/Map无序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sting元素类型为Char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +292,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -317,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -327,6 +390,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -607,29 +682,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AH14"/>
+  <dimension ref="A4:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.84765625" customWidth="1"/>
+    <col min="1" max="1" width="16.84765625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="18.546875" customWidth="1"/>
     <col min="4" max="4" width="19.59765625" customWidth="1"/>
     <col min="5" max="5" width="20.296875" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="11.94921875" customWidth="1"/>
     <col min="8" max="8" width="5.796875" customWidth="1"/>
     <col min="9" max="9" width="9.1484375" customWidth="1"/>
     <col min="10" max="10" width="11.19921875" customWidth="1"/>
     <col min="11" max="11" width="8.796875" customWidth="1"/>
-    <col min="12" max="24" width="6.546875" customWidth="1"/>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:34" ht="19.2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -661,77 +736,26 @@
       <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="Q4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -765,59 +789,26 @@
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -851,7 +842,9 @@
       <c r="K6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="M6" s="4" t="s">
         <v>2</v>
       </c>
@@ -867,55 +860,8 @@
       <c r="Q6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="7" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -947,55 +893,26 @@
       <c r="K7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="8" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,57 +944,26 @@
       <c r="K8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="9" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1109,63 +995,26 @@
       <c r="K9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="10" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1048,9 @@
       <c r="K10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1215,55 +1066,8 @@
       <c r="Q10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1297,55 +1101,20 @@
       <c r="M11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="N11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1385,57 +1154,14 @@
       <c r="O12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="P12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1469,53 +1195,20 @@
       <c r="M13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="1:34" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="N13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1555,53 +1248,983 @@
       <c r="O14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="53.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140E15E3-2422-4597-8FB8-7B69E8D04B94}">
+  <dimension ref="A5:N16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:14" ht="19.2" x14ac:dyDescent="0.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="53.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7452376C-3CFA-4787-B5DC-4342E6DD2FEC}">
+  <dimension ref="A4:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.34765625" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="9.44921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:15" ht="19.2" x14ac:dyDescent="0.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="53.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/scala/sd_container/集合常见操作_help.xlsx
+++ b/src/main/scala/sd_container/集合常见操作_help.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanm\Music\GitHubProjects\JavaScalaStudy\src\main\scala\sd_container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8504AA80-D4D5-4590-AE6E-510F209FD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095FBBB-6280-445B-8EDA-A4105A3C0CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="57">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>Sting元素类型为Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多相处(par)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:Q15"/>
+  <dimension ref="A4:R15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -697,14 +701,15 @@
     <col min="5" max="5" width="20.296875" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="11.94921875" customWidth="1"/>
-    <col min="8" max="8" width="5.796875" customWidth="1"/>
-    <col min="9" max="9" width="9.1484375" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.1484375" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18" ht="19.2" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -724,38 +729,41 @@
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -807,8 +815,11 @@
       <c r="Q5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -860,8 +871,11 @@
       <c r="Q6" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="Q7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -962,8 +979,11 @@
       <c r="Q8" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="Q9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1089,11 @@
       <c r="Q10" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1113,8 +1139,11 @@
       <c r="Q11" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="Q12" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1239,11 @@
       <c r="Q13" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" x14ac:dyDescent="0.75">
+      <c r="R13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1254,8 +1289,11 @@
       <c r="Q14" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="53.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" ht="53.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -1279,6 +1317,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1696,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7452376C-3CFA-4787-B5DC-4342E6DD2FEC}">
   <dimension ref="A4:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
